--- a/GB Accounts 2025-26/GB Accounts Company 2025-2026 (Any) Excel 2007/Vatreturns.xlsx
+++ b/GB Accounts 2025-26/GB Accounts Company 2025-2026 (Any) Excel 2007/Vatreturns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2024-25/GB Accounts Company 2024-2025 (Any) Excel 2007/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antony/projects/diy-accounting/GB Accounts 2025-26/GB Accounts Company 2025-2026 (Any) Excel 2007/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF99858D-097F-9E4E-B6F2-ED6049F51C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F83C9E4-926E-284B-8965-923A10BFFB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32420" windowHeight="16880" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1113,6 +1113,30 @@
     <xf numFmtId="164" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
@@ -1166,30 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,87 +1326,87 @@
       <sheetData sheetId="11">
         <row r="6">
           <cell r="B6">
-            <v>45382</v>
+            <v>45747</v>
           </cell>
         </row>
         <row r="8">
           <cell r="B8">
-            <v>45412</v>
+            <v>45777</v>
           </cell>
         </row>
         <row r="10">
           <cell r="B10">
-            <v>45443</v>
+            <v>45808</v>
           </cell>
         </row>
         <row r="12">
           <cell r="B12">
-            <v>45473</v>
+            <v>45838</v>
           </cell>
         </row>
         <row r="14">
           <cell r="B14">
-            <v>45504</v>
+            <v>45869</v>
           </cell>
         </row>
         <row r="16">
           <cell r="B16">
-            <v>45535</v>
+            <v>45900</v>
           </cell>
         </row>
         <row r="18">
           <cell r="B18">
-            <v>45565</v>
+            <v>45930</v>
           </cell>
         </row>
         <row r="20">
           <cell r="B20">
-            <v>45596</v>
+            <v>45961</v>
           </cell>
         </row>
         <row r="22">
           <cell r="B22">
-            <v>45626</v>
+            <v>45991</v>
           </cell>
         </row>
         <row r="24">
           <cell r="B24">
-            <v>45657</v>
+            <v>46022</v>
           </cell>
         </row>
         <row r="26">
           <cell r="B26">
-            <v>45688</v>
+            <v>46053</v>
           </cell>
         </row>
         <row r="28">
           <cell r="B28">
-            <v>45716</v>
+            <v>46081</v>
           </cell>
         </row>
         <row r="30">
           <cell r="B30">
-            <v>45747</v>
+            <v>46112</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32">
-            <v>45777</v>
+            <v>46142</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34">
-            <v>45808</v>
+            <v>46173</v>
           </cell>
         </row>
         <row r="36">
           <cell r="B36">
-            <v>45838</v>
+            <v>46203</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38">
-            <v>45869</v>
+            <v>46234</v>
           </cell>
         </row>
       </sheetData>
@@ -2102,19 +2102,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2131,15 +2131,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -2148,32 +2148,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -2182,27 +2182,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2217,17 +2217,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2254,17 +2254,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2290,17 +2290,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2327,17 +2327,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -2366,13 +2366,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="132" t="str">
+      <c r="B17" s="138" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -2397,12 +2397,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="106"/>
-      <c r="B19" s="135" t="str">
+      <c r="B19" s="141" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="107" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)," ")</f>
         <v xml:space="preserve"> </v>
@@ -2425,13 +2425,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="123" t="str">
+      <c r="B21" s="129" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -2455,12 +2455,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -2606,11 +2606,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B9:E9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B4:C7"/>
@@ -2618,6 +2613,11 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -13913,19 +13913,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -13942,15 +13942,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -13959,32 +13959,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -13993,27 +13993,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14028,17 +14028,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -14050,7 +14050,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14065,17 +14065,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -14086,7 +14086,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14101,17 +14101,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -14123,7 +14123,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14138,17 +14138,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -14160,7 +14160,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14177,13 +14177,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="132" t="str">
+      <c r="B17" s="138" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -14208,12 +14208,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="106"/>
-      <c r="B19" s="135" t="str">
+      <c r="B19" s="141" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="107" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)," ")</f>
         <v xml:space="preserve"> </v>
@@ -14236,13 +14236,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="123" t="str">
+      <c r="B21" s="129" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -14266,12 +14266,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -14417,18 +14417,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C7"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -14484,19 +14484,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14513,15 +14513,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -14530,32 +14530,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -14564,27 +14564,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14599,17 +14599,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -14621,7 +14621,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14636,17 +14636,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -14657,7 +14657,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14672,17 +14672,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -14694,7 +14694,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -14709,17 +14709,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -14731,7 +14731,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -14748,13 +14748,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="132" t="str">
+      <c r="B17" s="138" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -14779,12 +14779,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="106"/>
-      <c r="B19" s="135" t="str">
+      <c r="B19" s="141" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="107" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)," ")</f>
         <v xml:space="preserve"> </v>
@@ -14807,13 +14807,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="123" t="str">
+      <c r="B21" s="129" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -14837,12 +14837,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -14988,18 +14988,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C7"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15055,19 +15055,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15084,15 +15084,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -15101,32 +15101,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -15135,27 +15135,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15170,17 +15170,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -15192,7 +15192,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15207,17 +15207,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -15228,7 +15228,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15243,17 +15243,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -15265,7 +15265,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15280,17 +15280,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -15302,7 +15302,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15319,13 +15319,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="132" t="str">
+      <c r="B17" s="138" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -15350,12 +15350,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="106"/>
-      <c r="B19" s="135" t="str">
+      <c r="B19" s="141" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="107" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)," ")</f>
         <v xml:space="preserve"> </v>
@@ -15378,13 +15378,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="123" t="str">
+      <c r="B21" s="129" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -15408,12 +15408,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -15559,18 +15559,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:E21"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B4:C7"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:E21"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -15626,19 +15626,19 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="71"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="15"/>
       <c r="H2" s="10"/>
       <c r="I2" s="13"/>
       <c r="K2" s="69">
         <f>Vatinterface!B6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15655,15 +15655,15 @@
       <c r="I3" s="13"/>
       <c r="K3" s="69">
         <f>Vatinterface!B7</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="127"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="14"/>
@@ -15672,32 +15672,32 @@
       <c r="I4" s="13"/>
       <c r="K4" s="69">
         <f>Vatinterface!B8</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="140" t="s">
+      <c r="E5" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="141"/>
+      <c r="F5" s="126"/>
       <c r="G5" s="42">
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="13"/>
       <c r="K5" s="69">
         <f>Vatinterface!B9</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="135"/>
       <c r="D6" s="10"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -15706,27 +15706,27 @@
       <c r="I6" s="13"/>
       <c r="K6" s="69">
         <f>Vatinterface!B10</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="131"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="137"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="143"/>
+      <c r="F7" s="128"/>
       <c r="G7" s="19">
         <f>LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!C1:C20)</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="K7" s="69">
         <f>Vatinterface!B11</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15741,17 +15741,17 @@
       <c r="I8" s="13"/>
       <c r="K8" s="69">
         <f>Vatinterface!B12</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="67"/>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="125"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="21">
         <v>1</v>
       </c>
@@ -15763,7 +15763,7 @@
       <c r="I9" s="13"/>
       <c r="K9" s="69">
         <f>Vatinterface!B13</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15778,17 +15778,17 @@
       <c r="I10" s="13"/>
       <c r="K10" s="69">
         <f>Vatinterface!B14</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="68"/>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="125"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
       <c r="F11" s="21">
         <v>2</v>
       </c>
@@ -15799,7 +15799,7 @@
       <c r="I11" s="13"/>
       <c r="K11" s="69">
         <f>Vatinterface!B15</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15814,17 +15814,17 @@
       <c r="I12" s="13"/>
       <c r="K12" s="69">
         <f>Vatinterface!B16</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="68"/>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="125"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
       <c r="F13" s="21">
         <v>3</v>
       </c>
@@ -15836,7 +15836,7 @@
       <c r="I13" s="13"/>
       <c r="K13" s="69">
         <f>Vatinterface!B17</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -15851,17 +15851,17 @@
       <c r="I14" s="13"/>
       <c r="K14" s="69">
         <f>Vatinterface!B18</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="68"/>
-      <c r="B15" s="123" t="s">
+      <c r="B15" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="125"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
       <c r="F15" s="21">
         <v>4</v>
       </c>
@@ -15873,7 +15873,7 @@
       <c r="I15" s="13"/>
       <c r="K15" s="69">
         <f>Vatinterface!B19</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
@@ -15890,13 +15890,13 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="68"/>
-      <c r="B17" s="132" t="str">
+      <c r="B17" s="138" t="str">
         <f>IF(G17&gt;0,"Net VAT to be PAID to Customs","Net VAT to be RECLIAMED from Customs")</f>
         <v>Net VAT to be RECLIAMED from Customs</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
       <c r="F17" s="21">
         <v>5</v>
       </c>
@@ -15921,12 +15921,12 @@
     </row>
     <row r="19" spans="1:11" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="106"/>
-      <c r="B19" s="135" t="str">
+      <c r="B19" s="141" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"FLAT RATE SCHEME APPLIED"," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="143"/>
       <c r="E19" s="107" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)," ")</f>
         <v xml:space="preserve"> </v>
@@ -15949,13 +15949,13 @@
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68"/>
-      <c r="B21" s="123" t="str">
+      <c r="B21" s="129" t="str">
         <f>IF(LOOKUP(G$5,Vatinterface!B1:B20,Vatinterface!M1:M20)&gt;0,"Total value of sales including VAT","Total value of sales excluding VAT")</f>
         <v>Total value of sales excluding VAT</v>
       </c>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
       <c r="F21" s="21">
         <v>6</v>
       </c>
@@ -15979,12 +15979,12 @@
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="67"/>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="125"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
       <c r="F23" s="21">
         <v>7</v>
       </c>
@@ -16165,7 +16165,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -16253,11 +16253,11 @@
       <c r="A4" s="56"/>
       <c r="B4" s="62">
         <f>[1]Admin!$B$6</f>
-        <v>45382</v>
+        <v>45747</v>
       </c>
       <c r="C4" s="62">
         <f>B5</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="D4" s="104">
         <f>'Sales Q1-2'!$H$1</f>
@@ -16290,11 +16290,11 @@
       <c r="A5" s="56"/>
       <c r="B5" s="62">
         <f>[1]Admin!$B$8</f>
-        <v>45412</v>
+        <v>45777</v>
       </c>
       <c r="C5" s="62">
         <f t="shared" ref="C5:C18" si="0">B6</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="D5" s="104">
         <f>'Sales Q1-1'!$H$1</f>
@@ -16327,11 +16327,11 @@
       <c r="A6" s="56"/>
       <c r="B6" s="62">
         <f>[1]Admin!$B$10</f>
-        <v>45443</v>
+        <v>45808</v>
       </c>
       <c r="C6" s="62">
         <f t="shared" si="0"/>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="D6" s="104">
         <f>'[2]Month 01'!$H$1</f>
@@ -16376,11 +16376,11 @@
       <c r="A7" s="56"/>
       <c r="B7" s="62">
         <f>[1]Admin!$B$12</f>
-        <v>45473</v>
+        <v>45838</v>
       </c>
       <c r="C7" s="62">
         <f t="shared" si="0"/>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="D7" s="104">
         <f>'[2]Month 02'!$H$1</f>
@@ -16425,11 +16425,11 @@
       <c r="A8" s="56"/>
       <c r="B8" s="62">
         <f>[1]Admin!$B$14</f>
-        <v>45504</v>
+        <v>45869</v>
       </c>
       <c r="C8" s="62">
         <f t="shared" si="0"/>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="D8" s="104">
         <f>'[2]Month 03'!$H$1</f>
@@ -16474,11 +16474,11 @@
       <c r="A9" s="56"/>
       <c r="B9" s="62">
         <f>[1]Admin!$B$16</f>
-        <v>45535</v>
+        <v>45900</v>
       </c>
       <c r="C9" s="62">
         <f t="shared" si="0"/>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="D9" s="104">
         <f>'[2]Month 04'!$H$1</f>
@@ -16523,11 +16523,11 @@
       <c r="A10" s="56"/>
       <c r="B10" s="62">
         <f>[1]Admin!$B$18</f>
-        <v>45565</v>
+        <v>45930</v>
       </c>
       <c r="C10" s="62">
         <f t="shared" si="0"/>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="D10" s="104">
         <f>'[2]Month 05'!$H$1</f>
@@ -16572,11 +16572,11 @@
       <c r="A11" s="56"/>
       <c r="B11" s="62">
         <f>[1]Admin!$B$20</f>
-        <v>45596</v>
+        <v>45961</v>
       </c>
       <c r="C11" s="62">
         <f t="shared" si="0"/>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="D11" s="104">
         <f>'[2]Month 06'!$H$1</f>
@@ -16621,11 +16621,11 @@
       <c r="A12" s="56"/>
       <c r="B12" s="62">
         <f>[1]Admin!$B$22</f>
-        <v>45626</v>
+        <v>45991</v>
       </c>
       <c r="C12" s="62">
         <f t="shared" si="0"/>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="D12" s="104">
         <f>'[2]Month 07'!$H$1</f>
@@ -16670,11 +16670,11 @@
       <c r="A13" s="56"/>
       <c r="B13" s="62">
         <f>[1]Admin!$B$24</f>
-        <v>45657</v>
+        <v>46022</v>
       </c>
       <c r="C13" s="62">
         <f t="shared" si="0"/>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="D13" s="104">
         <f>'[2]Month 08'!$H$1</f>
@@ -16719,11 +16719,11 @@
       <c r="A14" s="56"/>
       <c r="B14" s="62">
         <f>[1]Admin!$B$26</f>
-        <v>45688</v>
+        <v>46053</v>
       </c>
       <c r="C14" s="62">
         <f t="shared" si="0"/>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="D14" s="104">
         <f>'[2]Month 09'!$H$1</f>
@@ -16768,11 +16768,11 @@
       <c r="A15" s="56"/>
       <c r="B15" s="62">
         <f>[1]Admin!$B$28</f>
-        <v>45716</v>
+        <v>46081</v>
       </c>
       <c r="C15" s="62">
         <f t="shared" si="0"/>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="D15" s="104">
         <f>'[2]Month 10'!$H$1</f>
@@ -16817,11 +16817,11 @@
       <c r="A16" s="56"/>
       <c r="B16" s="62">
         <f>[1]Admin!$B$30</f>
-        <v>45747</v>
+        <v>46112</v>
       </c>
       <c r="C16" s="62">
         <f t="shared" si="0"/>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="D16" s="104">
         <f>'[2]Month 11'!$H$1</f>
@@ -16866,11 +16866,11 @@
       <c r="A17" s="56"/>
       <c r="B17" s="62">
         <f>[1]Admin!$B$32</f>
-        <v>45777</v>
+        <v>46142</v>
       </c>
       <c r="C17" s="62">
         <f t="shared" si="0"/>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="D17" s="104">
         <f>'[2]Month 12'!$H$1</f>
@@ -16915,11 +16915,11 @@
       <c r="A18" s="56"/>
       <c r="B18" s="62">
         <f>[1]Admin!$B$34</f>
-        <v>45808</v>
+        <v>46173</v>
       </c>
       <c r="C18" s="62">
         <f t="shared" si="0"/>
-        <v>45838</v>
+        <v>46203</v>
       </c>
       <c r="D18" s="104">
         <f>'Sales Q4+1'!$H$1</f>
@@ -16964,11 +16964,11 @@
       <c r="A19" s="56"/>
       <c r="B19" s="62">
         <f>[1]Admin!$B$36</f>
-        <v>45838</v>
+        <v>46203</v>
       </c>
       <c r="C19" s="63">
         <f>[1]Admin!$B$38</f>
-        <v>45869</v>
+        <v>46234</v>
       </c>
       <c r="D19" s="104">
         <f>'Sales Q4+2'!$H$1</f>
